--- a/instructionSet.xlsx
+++ b/instructionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\excelCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9036BC5B-E3C0-4A3D-8C77-C898EFF5EC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A76032-DC77-452A-9A81-38F57232AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -424,37 +424,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -665,10 +634,8 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -677,47 +644,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -787,11 +717,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,126 +818,139 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,15 +1260,15 @@
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="83" customWidth="1"/>
+    <col min="17" max="17" width="90.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="33"/>
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1252,1178 +1284,1178 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="43">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="9">
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36">
         <v>15</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="37">
         <v>4</v>
       </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>1</v>
-      </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="24" t="s">
+      <c r="M3" s="37">
+        <v>0</v>
+      </c>
+      <c r="N3" s="37">
+        <v>0</v>
+      </c>
+      <c r="O3" s="38">
+        <v>1</v>
+      </c>
+      <c r="P3" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="9">
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="7">
         <v>15</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <v>4</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11">
-        <v>1</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="24" t="s">
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="44">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="9">
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="7">
         <v>15</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="8">
         <v>4</v>
       </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
-        <v>1</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="24" t="s">
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="A6" s="44">
         <v>3</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="9">
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="7">
         <v>15</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>4</v>
       </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11">
-        <v>1</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="24" t="s">
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="A7" s="44">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="9">
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="7">
         <v>15</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>5</v>
       </c>
-      <c r="M7" s="10">
-        <v>1</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0</v>
-      </c>
-      <c r="P7" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="24" t="s">
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="44">
         <v>5</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="27" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="9">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="7">
         <v>15</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <v>4</v>
       </c>
-      <c r="M8" s="10">
-        <v>1</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="24" t="s">
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="45">
         <v>6</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="27" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="9">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="7">
         <v>12</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="8">
         <v>4</v>
       </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24" t="s">
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="46">
         <v>7</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="34" t="s">
+      <c r="D10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="9">
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="7">
         <v>12</v>
       </c>
-      <c r="L10" s="10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="24" t="s">
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+      <c r="A11" s="44">
         <v>8</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="27" t="s">
+      <c r="D11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="9">
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="7">
         <v>12</v>
       </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="24" t="s">
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="A12" s="44">
         <v>9</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="27" t="s">
+      <c r="D12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="10">
-        <v>1</v>
-      </c>
-      <c r="M12" s="10">
-        <v>1</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="24" t="s">
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="27" t="s">
+      <c r="D13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="9">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10">
-        <v>1</v>
-      </c>
-      <c r="M13" s="10">
-        <v>1</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="24" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="27" t="s">
+      <c r="D14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="9">
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="7">
         <v>2</v>
       </c>
-      <c r="L14" s="10">
-        <v>1</v>
-      </c>
-      <c r="M14" s="10">
-        <v>1</v>
-      </c>
-      <c r="N14" s="10">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="24" t="s">
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="27" t="s">
+      <c r="D15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="9">
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="7">
         <v>3</v>
       </c>
-      <c r="L15" s="10">
-        <v>1</v>
-      </c>
-      <c r="M15" s="10">
-        <v>1</v>
-      </c>
-      <c r="N15" s="10">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="24" t="s">
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="27" t="s">
+      <c r="D16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="9">
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="7">
         <v>4</v>
       </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="24" t="s">
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="27" t="s">
+      <c r="D17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="9">
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="7">
         <v>5</v>
       </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>1</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0</v>
-      </c>
-      <c r="P17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="24" t="s">
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="27" t="s">
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="9">
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="7">
         <v>6</v>
       </c>
-      <c r="L18" s="10">
-        <v>1</v>
-      </c>
-      <c r="M18" s="10">
-        <v>1</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="11">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="24" t="s">
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+      <c r="A19" s="44">
         <v>10</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="27" t="s">
+      <c r="D19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="9">
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="7">
         <v>7</v>
       </c>
-      <c r="L19" s="10">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10">
-        <v>1</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0</v>
-      </c>
-      <c r="O19" s="11">
-        <v>0</v>
-      </c>
-      <c r="P19" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="24" t="s">
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="8">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="42">
+      <c r="A20" s="44">
         <v>11</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="27" t="s">
+      <c r="D20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="9">
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="7">
         <v>8</v>
       </c>
-      <c r="L20" s="10">
-        <v>1</v>
-      </c>
-      <c r="M20" s="10">
-        <v>1</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0</v>
-      </c>
-      <c r="O20" s="11">
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="24" t="s">
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
+      <c r="A21" s="44">
         <v>12</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="27" t="s">
+      <c r="D21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="9">
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="7">
         <v>9</v>
       </c>
-      <c r="L21" s="10">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>1</v>
-      </c>
-      <c r="N21" s="10">
-        <v>0</v>
-      </c>
-      <c r="O21" s="11">
-        <v>0</v>
-      </c>
-      <c r="P21" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="24" t="s">
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
+      <c r="A22" s="44">
         <v>13</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="27" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="9">
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="7">
         <v>10</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="8">
         <v>3</v>
       </c>
-      <c r="M22" s="10">
-        <v>1</v>
-      </c>
-      <c r="N22" s="10">
-        <v>0</v>
-      </c>
-      <c r="O22" s="11">
-        <v>0</v>
-      </c>
-      <c r="P22" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="24" t="s">
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="42">
+      <c r="A23" s="44">
         <v>14</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="27" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="9">
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="7">
         <v>11</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="8">
         <v>3</v>
       </c>
-      <c r="M23" s="10">
-        <v>1</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0</v>
-      </c>
-      <c r="O23" s="11">
-        <v>0</v>
-      </c>
-      <c r="P23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="24" t="s">
+      <c r="M23" s="8">
+        <v>1</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
+      <c r="A24" s="44">
         <v>15</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="27" t="s">
+      <c r="D24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="9">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10">
-        <v>1</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="10">
-        <v>0</v>
-      </c>
-      <c r="O24" s="11">
-        <v>0</v>
-      </c>
-      <c r="P24" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="24" t="s">
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="42">
+      <c r="A25" s="44">
         <v>16</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="26" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="9">
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="7">
         <v>13</v>
       </c>
-      <c r="L25" s="10">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="10">
-        <v>0</v>
-      </c>
-      <c r="O25" s="11">
-        <v>0</v>
-      </c>
-      <c r="P25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="24" t="s">
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="22" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
+      <c r="A26" s="44">
         <v>17</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="26" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="9">
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="7">
         <v>14</v>
       </c>
-      <c r="L26" s="10">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <v>0</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0</v>
-      </c>
-      <c r="P26" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="24" t="s">
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="42">
+      <c r="A27" s="44">
         <v>18</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>24</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="27" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="9">
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="7">
         <v>15</v>
       </c>
-      <c r="L27" s="10">
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
-      <c r="N27" s="10">
-        <v>0</v>
-      </c>
-      <c r="O27" s="10">
-        <v>0</v>
-      </c>
-      <c r="P27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="24" t="s">
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43">
+      <c r="A28" s="45">
         <v>19</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>25</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="31" t="s">
+      <c r="D28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="22">
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="20">
         <v>15</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="20">
         <v>2</v>
       </c>
-      <c r="M28" s="22">
-        <v>1</v>
-      </c>
-      <c r="N28" s="22">
-        <v>0</v>
-      </c>
-      <c r="O28" s="23">
-        <v>0</v>
-      </c>
-      <c r="P28" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="25" t="s">
+      <c r="M28" s="20">
+        <v>1</v>
+      </c>
+      <c r="N28" s="20">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21">
+        <v>0</v>
+      </c>
+      <c r="P28" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="23" t="s">
         <v>97</v>
       </c>
     </row>

--- a/instructionSet.xlsx
+++ b/instructionSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto Manzano\Downloads\excelCPU-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECECE22-7376-4E74-AE11-6799221D7641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C42B0B-79CE-434C-832C-CACCB50DBC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>32b/16b</t>
   </si>
   <si>
-    <t>OPERATION</t>
-  </si>
-  <si>
     <t>ALU OP</t>
   </si>
   <si>
@@ -342,24 +339,12 @@
     <t>NOTAS TÉCNICAS</t>
   </si>
   <si>
-    <t>PC CONFIGURADO PARA O VALOR IMEDIATO ATRAVÉS DO OPERANDO 2 SELECIONADO PELO MUX</t>
-  </si>
-  <si>
-    <t>SALTA SE FLAG ZERO ESTIVER VERDADEIRO</t>
-  </si>
-  <si>
     <t>DEFINE REGISTRO PARA VALOR DE MEMÓRIA NO ENDEREÇO IMEDIATO</t>
   </si>
   <si>
-    <t>DEFINE REGISTRO PARA O VALOR IMEDIATO</t>
-  </si>
-  <si>
     <t>DEFINE VALOR DE MEMÓRIA NO ENDEREÇO IMEDIATO PARA O VALOR DO REGISTRO</t>
   </si>
   <si>
-    <t>DEFINE VALOR DE MEMÓRIA NO ENDEREÇO DE REGB PARA O VALOR DE REGA</t>
-  </si>
-  <si>
     <t>TRANSFERA VALOR DE REGA PARA REGB</t>
   </si>
   <si>
@@ -393,21 +378,9 @@
     <t>MULTIPLIED REGA AND REGB, ARMAZENA RESULTADO DE 16 BITS BAIXO EM REGA, ARMAZENA RESULTADO DE 16 BITS ALTO EM REGB</t>
   </si>
   <si>
-    <t>ROTAÇÃO À ESQUERDA DOS BITS DE REGA REALIZADA 4 VEZES, COM TRANSPORTE (CARRY) DE 4 BITS IMD</t>
-  </si>
-  <si>
-    <t>ROTAÇÃO À DIREITA DOS BITS DE REGA REALIZADA 4 VEZES, COM TRANSPORTE (CARRY) DE 4 BITS IMD</t>
-  </si>
-  <si>
     <t>SUBTRAI REGA E REGB, O RESULTADOS NÃO É ARMAZENADO, APENAS FLAGS SÃO AFETADAS</t>
   </si>
   <si>
-    <t>SALTA SE FLAG DE TRANSPORTE (CARRY) FOR FALSA</t>
-  </si>
-  <si>
-    <t>SALTA SE FLAG DE TRANSPORTE (CARRY) OU FLAG ZERO FOREM VERDADEIRAS</t>
-  </si>
-  <si>
     <t>FLAG DE TRANSPORTE (CARRY) DEFINIDA COMO 0</t>
   </si>
   <si>
@@ -418,6 +391,33 @@
   </si>
   <si>
     <t>DEFINE REGA PARA VALOR DE MEMÓRIA NO ENDEREÇO EM REGB</t>
+  </si>
+  <si>
+    <t>OPERAÇÃO</t>
+  </si>
+  <si>
+    <t>PC CONFIGURADO PARA VALOR IMEDIATO POR MEIO DO OPERANDO 2 SELECIONADO PELO MUX</t>
+  </si>
+  <si>
+    <t>SALTA SE FLAG ZERO ESTIVER VERDADEIRA</t>
+  </si>
+  <si>
+    <t>SALTA SE FLAG DE TRANSPORTE (CARRY) ESTIVER FALSA</t>
+  </si>
+  <si>
+    <t>SALTA SE FLAG DE TRANSPORTE (CARRY) OU FLAG ZERO ESTIVEREM VERDADEIRAS</t>
+  </si>
+  <si>
+    <t>DEFINE REGISTRO PARA VALOR IMEDIATO</t>
+  </si>
+  <si>
+    <t>DEFINE VALOR DE MEMÓRIA NO ENDEREÇO DE REGB PARA VALOR DE REGA</t>
+  </si>
+  <si>
+    <t>ROTAÇÃO À ESQUERDA DOS BITS DE REGA REALIZADA 4 VEZES, COM TRANSPORTE (CARRY) DE 4 BITS EM IMD</t>
+  </si>
+  <si>
+    <t>ROTAÇÃO À DIREITA DOS BITS DE REGA REALIZADA 4 VEZES, COM TRANSPORTE (CARRY) DE 4 BITS EM IMD</t>
   </si>
 </sst>
 </file>
@@ -972,50 +972,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,10 +1327,10 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="37"/>
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1346,56 +1346,56 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="H3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="10">
         <v>15</v>
       </c>
@@ -1415,30 +1415,30 @@
         <v>0</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+        <v>13</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="10">
         <v>15</v>
       </c>
@@ -1458,30 +1458,30 @@
         <v>0</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="14">
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+        <v>13</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="10">
         <v>15</v>
       </c>
@@ -1506,25 +1506,25 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="14">
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="10">
         <v>15</v>
       </c>
@@ -1549,27 +1549,27 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="14">
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="10">
         <v>15</v>
       </c>
@@ -1589,32 +1589,32 @@
         <v>1</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="14">
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="10">
         <v>15</v>
       </c>
@@ -1634,32 +1634,32 @@
         <v>1</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="19">
         <v>6</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+        <v>28</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
       <c r="K9" s="10">
         <v>12</v>
       </c>
@@ -1679,34 +1679,34 @@
         <v>0</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="22">
         <v>7</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="H10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="10">
         <v>12</v>
       </c>
@@ -1726,32 +1726,32 @@
         <v>0</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="14">
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="10">
         <v>12</v>
       </c>
@@ -1771,35 +1771,35 @@
         <v>0</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="14">
         <v>9</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="31" t="s">
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="L12" s="11">
         <v>1</v>
       </c>
@@ -1816,35 +1816,35 @@
         <v>0</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="14">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="31" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="L13" s="11">
         <v>1</v>
       </c>
@@ -1861,35 +1861,35 @@
         <v>0</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="14">
         <v>11</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="31" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="L14" s="11">
         <v>1</v>
       </c>
@@ -1906,35 +1906,35 @@
         <v>0</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="14">
         <v>12</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="31" t="s">
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="L15" s="11">
         <v>1</v>
       </c>
@@ -1951,33 +1951,33 @@
         <v>0</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="14">
         <v>13</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="31" t="s">
+      <c r="G16" s="33"/>
+      <c r="H16" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="L16" s="11">
         <v>0</v>
       </c>
@@ -1994,33 +1994,33 @@
         <v>0</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="14">
         <v>14</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="L17" s="11">
         <v>0</v>
       </c>
@@ -2037,35 +2037,35 @@
         <v>0</v>
       </c>
       <c r="Q17" s="28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="14">
         <v>15</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="31" t="s">
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="L18" s="11">
         <v>1</v>
       </c>
@@ -2082,35 +2082,35 @@
         <v>0</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="14">
         <v>16</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="31" t="s">
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="L19" s="11">
         <v>1</v>
       </c>
@@ -2127,35 +2127,35 @@
         <v>0</v>
       </c>
       <c r="Q19" s="28" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="14">
         <v>17</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="31" t="s">
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="L20" s="11">
         <v>1</v>
       </c>
@@ -2172,33 +2172,33 @@
         <v>0</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="14">
         <v>18</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="L21" s="11">
         <v>0</v>
       </c>
@@ -2215,32 +2215,32 @@
         <v>0</v>
       </c>
       <c r="Q21" s="28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="14">
         <v>19</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
       <c r="K22" s="10">
         <v>10</v>
       </c>
@@ -2260,32 +2260,32 @@
         <v>0</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="14">
         <v>20</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
       <c r="K23" s="10">
         <v>11</v>
       </c>
@@ -2305,34 +2305,34 @@
         <v>0</v>
       </c>
       <c r="Q23" s="28" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="14">
         <v>21</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
       <c r="K24" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L24" s="11">
         <v>1</v>
@@ -2350,28 +2350,28 @@
         <v>0</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="14">
         <v>22</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="30"/>
       <c r="K25" s="10">
         <v>13</v>
       </c>
@@ -2391,28 +2391,28 @@
         <v>0</v>
       </c>
       <c r="Q25" s="28" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="14">
         <v>23</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="10">
         <v>14</v>
       </c>
@@ -2432,28 +2432,28 @@
         <v>0</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="14">
         <v>24</v>
       </c>
       <c r="C27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
       <c r="K27" s="10">
         <v>15</v>
       </c>
@@ -2473,32 +2473,32 @@
         <v>0</v>
       </c>
       <c r="Q27" s="28" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="19">
         <v>25</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="25"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
       <c r="K28" s="26">
         <v>15</v>
       </c>
@@ -2518,23 +2518,14 @@
         <v>1</v>
       </c>
       <c r="Q28" s="29" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="G10:G28"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
@@ -2549,11 +2540,20 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="G10:G28"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:F26 A27:D27 F27 A28:F28">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
